--- a/Nautobot-upload.xlsx
+++ b/Nautobot-upload.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verke\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verke\Desktop\Github\Nautobot-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B36FAA6-DD5A-4399-A493-4CF124D75180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81525A39-D72A-4E6E-94C6-CEAF5B77B55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31845" yWindow="1710" windowWidth="17865" windowHeight="16845" activeTab="1" xr2:uid="{DB4B8613-5E10-4FBC-BDE3-6D8FC1F3BD85}"/>
+    <workbookView xWindow="8910" yWindow="4590" windowWidth="14730" windowHeight="15000" activeTab="1" xr2:uid="{DB4B8613-5E10-4FBC-BDE3-6D8FC1F3BD85}"/>
   </bookViews>
   <sheets>
-    <sheet name="dcim_regions" sheetId="1" r:id="rId1"/>
-    <sheet name="dcim_sites" sheetId="2" r:id="rId2"/>
+    <sheet name="dcim.regions" sheetId="1" r:id="rId1"/>
+    <sheet name="dcim.sites" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -433,7 +433,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,7 +478,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
